--- a/Projects/MARSRU_PROD/Data/2020/KPIs to SQL.xlsx
+++ b/Projects/MARSRU_PROD/Data/2020/KPIs to SQL.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="144">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -427,6 +427,27 @@
   </si>
   <si>
     <t xml:space="preserve">Укажите общее количество фейсингов Марс на ДМП (кол-во фейсингов из цены мотивационная программа)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Секц лаком д/кош прим к корм д/кош и лаком д/соб к корм д/соб. Допуск разм между влаж и сух</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERFECT FIT вз.кош чувст инд 24*85г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheba Плежер куриц и кролик 24*85г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesar гов. с овощами 100г [Кол-во горизонтальных фэйсов на основной полке]</t>
   </si>
   <si>
     <t xml:space="preserve">Категория товаров для животных примыкает к ПРОМО АЛЛЕЕ, находится дальше 5-ти метров от входа и визуально доступна покупателям по ходу их движения без необходимости оборачиваться</t>
@@ -753,21 +774,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K156"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A143" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D166" activeCellId="0" sqref="D166"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A135" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K158" activeCellId="0" sqref="K158:K161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.8622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="283.34693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="11.3775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.4132653061224"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="11.3775510204082"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="298.923469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="11.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6331,6 +6352,19 @@
         <v>('1436', NULL, '1016', '1016', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
       </c>
     </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0"/>
+      <c r="B152" s="0"/>
+      <c r="C152" s="0"/>
+      <c r="D152" s="0"/>
+      <c r="E152" s="0"/>
+      <c r="F152" s="0"/>
+      <c r="G152" s="0"/>
+      <c r="H152" s="0"/>
+      <c r="I152" s="0"/>
+      <c r="J152" s="0"/>
+      <c r="K152" s="0"/>
+    </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="27" t="n">
         <v>10011</v>
@@ -6477,6 +6511,154 @@
       <c r="K156" s="1" t="str">
         <f aca="false">CONCATENATE(F156,E156,G156,A156,H156,A156,I156,D156,J156)</f>
         <v>('1440', NULL, '10013', '10013', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="27" t="n">
+        <v>5070</v>
+      </c>
+      <c r="B158" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="1" t="str">
+        <f aca="false">IF(EXACT(C158,"Boolean"),"'10'","NULL")</f>
+        <v>'10'</v>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>1441</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K158" s="1" t="str">
+        <f aca="false">CONCATENATE(F158,E158,G158,A158,H158,A158,I158,D158,J158)</f>
+        <v>('1441', NULL, '5070', '5070', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0','10'),</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B159" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" s="1" t="str">
+        <f aca="false">IF(EXACT(C159,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E159" s="1" t="n">
+        <v>1442</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K159" s="1" t="str">
+        <f aca="false">CONCATENATE(F159,E159,G159,A159,H159,A159,I159,D159,J159)</f>
+        <v>('1442', NULL, '5032', '5032', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B160" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D160" s="1" t="str">
+        <f aca="false">IF(EXACT(C160,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E160" s="1" t="n">
+        <v>1443</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K160" s="1" t="str">
+        <f aca="false">CONCATENATE(F160,E160,G160,A160,H160,A160,I160,D160,J160)</f>
+        <v>('1443', NULL, '5033', '5033', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B161" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" s="1" t="str">
+        <f aca="false">IF(EXACT(C161,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E161" s="1" t="n">
+        <v>1444</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K161" s="1" t="str">
+        <f aca="false">CONCATENATE(F161,E161,G161,A161,H161,A161,I161,D161,J161)</f>
+        <v>('1444', NULL, '5034', '5034', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
       </c>
     </row>
   </sheetData>
@@ -6495,17 +6677,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K156"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B155" activeCellId="0" sqref="B155"/>
+      <selection pane="topLeft" activeCell="K158" activeCellId="0" sqref="K158:K161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="11.3775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.4132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8509,7 +8691,7 @@
         <v>2219</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>20</v>
@@ -10507,7 +10689,7 @@
         <v>4219</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>20</v>
@@ -11815,7 +11997,7 @@
         <v>1010</v>
       </c>
       <c r="B145" s="28" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>12</v>
@@ -12069,6 +12251,19 @@
         <v>('2436', NULL, '1016-RUS', '1016 - PSS Другие производители ', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
       </c>
     </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0"/>
+      <c r="B152" s="0"/>
+      <c r="C152" s="0"/>
+      <c r="D152" s="0"/>
+      <c r="E152" s="0"/>
+      <c r="F152" s="0"/>
+      <c r="G152" s="0"/>
+      <c r="H152" s="0"/>
+      <c r="I152" s="0"/>
+      <c r="J152" s="0"/>
+      <c r="K152" s="0"/>
+    </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="27" t="n">
         <v>10011</v>
@@ -12215,6 +12410,154 @@
       <c r="K156" s="1" t="str">
         <f aca="false">CONCATENATE(F156,E156,G156,CONCATENATE(A156,"-RUS"),H156,CONCATENATE(A156," - ",B156),I156,D156,J156)</f>
         <v>('2735', NULL, '10013-RUS', '10013 - Выберите тип ДМП', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="27" t="n">
+        <v>5070</v>
+      </c>
+      <c r="B158" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="1" t="str">
+        <f aca="false">IF(EXACT(C158,"Boolean"),"'10'","NULL")</f>
+        <v>'10'</v>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>2739</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K158" s="1" t="str">
+        <f aca="false">CONCATENATE(F158,E158,G158,CONCATENATE(A158,"-RUS"),H158,CONCATENATE(A158," - ",B158),I158,D158,J158)</f>
+        <v>('2739', NULL, '5070-RUS', '5070 - Секц лаком д/кош прим к корм д/кош и лаком д/соб к корм д/соб. Допуск разм между влаж и сух', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0','10'),</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B159" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" s="1" t="str">
+        <f aca="false">IF(EXACT(C159,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E159" s="1" t="n">
+        <v>2740</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K159" s="1" t="str">
+        <f aca="false">CONCATENATE(F159,E159,G159,CONCATENATE(A159,"-RUS"),H159,CONCATENATE(A159," - ",B159),I159,D159,J159)</f>
+        <v>('2740', NULL, '5032-RUS', '5032 - PERFECT FIT вз.кош чувст инд 24*85г [Кол-во горизонтальных фэйсов на основной полке]', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B160" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D160" s="1" t="str">
+        <f aca="false">IF(EXACT(C160,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E160" s="1" t="n">
+        <v>2741</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K160" s="1" t="str">
+        <f aca="false">CONCATENATE(F160,E160,G160,CONCATENATE(A160,"-RUS"),H160,CONCATENATE(A160," - ",B160),I160,D160,J160)</f>
+        <v>('2741', NULL, '5033-RUS', '5033 - Sheba Плежер куриц и кролик 24*85г [Кол-во горизонтальных фэйсов на основной полке]', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B161" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" s="1" t="str">
+        <f aca="false">IF(EXACT(C161,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E161" s="1" t="n">
+        <v>2742</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K161" s="1" t="str">
+        <f aca="false">CONCATENATE(F161,E161,G161,CONCATENATE(A161,"-RUS"),H161,CONCATENATE(A161," - ",B161),I161,D161,J161)</f>
+        <v>('2742', NULL, '5034-RUS', '5034 - Cesar гов. с овощами 100г [Кол-во горизонтальных фэйсов на основной полке]', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/MARSRU_PROD/Data/2020/KPIs to SQL.xlsx
+++ b/Projects/MARSRU_PROD/Data/2020/KPIs to SQL.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="28">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t xml:space="preserve">Cesar гов. с овощами 100г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Влаж.корма Марс внутри выкладки в порядке: Whs - Shb Min Pch - Prf Fit - Shb Pch -Nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сум.лин.разм. влаж.однопорц.корм. CesarPch на 100% &gt; люб.бренда в суп.прем.влаж.корм.собак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виск апп. микс гов/ягн 24*85г  - [Кол-во горизонтальных фэйсов на основной полке]</t>
   </si>
 </sst>
 </file>
@@ -177,7 +186,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -202,6 +211,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -222,18 +235,18 @@
   <dimension ref="A1:K65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.9489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="11.9489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="11.9489795918367"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="315.341836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="11.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="12.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.1428571428571"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="12.5255102040816"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="332.617346938775"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="12.5255102040816"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -432,7 +445,121 @@
         <v>('1444', NULL, '5034', '5034', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
       </c>
     </row>
-    <row r="1048422" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>6048</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f aca="false">IF(EXACT(C8,"Boolean"),"'10'","NULL")</f>
+        <v>'10'</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>1445</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f aca="false">CONCATENATE(F8,E8,G8,A8,H8,A8,I8,D8,J8)</f>
+        <v>('1445', NULL, '6048', '6048', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0','10'),</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>6049</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f aca="false">IF(EXACT(C9,"Boolean"),"'10'","NULL")</f>
+        <v>'10'</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1446</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f aca="false">CONCATENATE(F9,E9,G9,A9,H9,A9,I9,D9,J9)</f>
+        <v>('1446', NULL, '6049', '6049', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0','10'),</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>5036</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f aca="false">IF(EXACT(C10,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>1447</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f aca="false">CONCATENATE(F10,E10,G10,A10,H10,A10,I10,D10,J10)</f>
+        <v>('1447', NULL, '5036', '5036', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
     <row r="1048423" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048424" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048425" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -606,14 +733,14 @@
   <dimension ref="A1:K65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="11.9489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.9489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="12.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.1428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="12.5255102040816"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -810,6 +937,117 @@
       <c r="K6" s="1" t="str">
         <f aca="false">CONCATENATE(F6,E6,G6,CONCATENATE(A6,"-RUS"),H6,CONCATENATE(A6," - ",B6),I6,D6,J6)</f>
         <v>('2742', NULL, '5034-RUS', '5034 - Cesar гов. с овощами 100г [Кол-во горизонтальных фэйсов на основной полке]', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>6048</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f aca="false">IF(EXACT(C8,"Boolean"),"'10'","NULL")</f>
+        <v>'10'</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>2910</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f aca="false">CONCATENATE(F8,E8,G8,CONCATENATE(A8,"-RUS"),H8,CONCATENATE(A8," - ",B8),I8,D8,J8)</f>
+        <v>('2910', NULL, '6048-RUS', '6048 - Влаж.корма Марс внутри выкладки в порядке: Whs - Shb Min Pch - Prf Fit - Shb Pch -Nat', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0','10'),</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>6049</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f aca="false">IF(EXACT(C9,"Boolean"),"'10'","NULL")</f>
+        <v>'10'</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>2911</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f aca="false">CONCATENATE(F9,E9,G9,CONCATENATE(A9,"-RUS"),H9,CONCATENATE(A9," - ",B9),I9,D9,J9)</f>
+        <v>('2911', NULL, '6049-RUS', '6049 - Сум.лин.разм. влаж.однопорц.корм. CesarPch на 100% &gt; люб.бренда в суп.прем.влаж.корм.собак', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0','10'),</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>5036</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f aca="false">IF(EXACT(C10,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>2912</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f aca="false">CONCATENATE(F10,E10,G10,CONCATENATE(A10,"-RUS"),H10,CONCATENATE(A10," - ",B10),I10,D10,J10)</f>
+        <v>('2912', NULL, '5036-RUS', '5036 - Виск апп. микс гов/ягн 24*85г  - [Кол-во горизонтальных фэйсов на основной полке]', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
       </c>
     </row>
     <row r="1048422" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
